--- a/接口功能测试用例.xlsx
+++ b/接口功能测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\api_test_framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68222188-2A15-4357-8745-0475789055E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504B2843-DF8A-4AC6-940E-47446776855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{684D0E66-443E-433B-A275-D2877F5630D0}"/>
+    <workbookView xWindow="3010" yWindow="580" windowWidth="14400" windowHeight="8800" xr2:uid="{684D0E66-443E-433B-A275-D2877F5630D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,14 +571,14 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -639,13 +639,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -668,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -697,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -726,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
@@ -758,13 +758,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
